--- a/SERNAC/Cotizador Medicamentos Bioequivalentes/variacion promedio por tipo.xlsx
+++ b/SERNAC/Cotizador Medicamentos Bioequivalentes/variacion promedio por tipo.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\SERNAC\Cotizador Medicamentos Bioequivalentes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351E6A8-CD29-4D1D-B018-E6BDA2DE590B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -271,8 +277,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,11 +341,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +427,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,6 +479,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,14 +672,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -663,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>32653.6</v>
+        <v>32653.599999999999</v>
       </c>
       <c r="D2">
-        <v>32653.6</v>
+        <v>32653.599999999999</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -681,7 +743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -689,10 +751,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>32984.66666666666</v>
+        <v>32984.666666666657</v>
       </c>
       <c r="D3">
-        <v>32984.66666666666</v>
+        <v>32984.666666666657</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -707,7 +769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -715,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>33011.45454545454</v>
+        <v>33011.454545454537</v>
       </c>
       <c r="D4">
-        <v>33011.45454545454</v>
+        <v>33011.454545454537</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -733,7 +795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -759,7 +821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -767,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>34304.28571428572</v>
+        <v>34304.285714285717</v>
       </c>
       <c r="D6">
-        <v>34304.28571428572</v>
+        <v>34304.285714285717</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -785,7 +847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -793,10 +855,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>34604.28571428572</v>
+        <v>34604.285714285717</v>
       </c>
       <c r="D7">
-        <v>34604.28571428572</v>
+        <v>34604.285714285717</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -811,7 +873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -837,7 +899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -863,7 +925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -889,7 +951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -915,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -941,7 +1003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -967,7 +1029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -993,7 +1055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1019,7 +1081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1027,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>36304.28571428572</v>
+        <v>36304.285714285717</v>
       </c>
       <c r="D16">
-        <v>36304.28571428572</v>
+        <v>36304.285714285717</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1045,7 +1107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1053,10 +1115,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>37332.85714285714</v>
+        <v>37332.857142857138</v>
       </c>
       <c r="D17">
-        <v>37332.85714285714</v>
+        <v>37332.857142857138</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1071,7 +1133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1097,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1123,7 +1185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1131,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>36304.28571428572</v>
+        <v>36304.285714285717</v>
       </c>
       <c r="D20">
-        <v>36304.28571428572</v>
+        <v>36304.285714285717</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1149,7 +1211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1175,7 +1237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1201,7 +1263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1227,7 +1289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1253,7 +1315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1261,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>36447.14285714286</v>
+        <v>36447.142857142862</v>
       </c>
       <c r="D25">
-        <v>36447.14285714286</v>
+        <v>36447.142857142862</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1279,7 +1341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1287,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>37656.66666666666</v>
+        <v>37656.666666666657</v>
       </c>
       <c r="D26">
-        <v>37656.66666666666</v>
+        <v>37656.666666666657</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1305,7 +1367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1313,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>36423.33333333334</v>
+        <v>36423.333333333343</v>
       </c>
       <c r="D27">
-        <v>36423.33333333334</v>
+        <v>36423.333333333343</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1331,7 +1393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1339,10 +1401,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>36448.57142857143</v>
+        <v>36448.571428571428</v>
       </c>
       <c r="D28">
-        <v>36448.57142857143</v>
+        <v>36448.571428571428</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1357,7 +1419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1365,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>36448.57142857143</v>
+        <v>36448.571428571428</v>
       </c>
       <c r="D29">
-        <v>36448.57142857143</v>
+        <v>36448.571428571428</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1383,7 +1445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1409,7 +1471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1435,7 +1497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1461,7 +1523,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1487,7 +1549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1495,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>36558.33333333334</v>
+        <v>36558.333333333343</v>
       </c>
       <c r="D34">
-        <v>36558.33333333334</v>
+        <v>36558.333333333343</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1513,7 +1575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1539,7 +1601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1565,7 +1627,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1591,7 +1653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1617,7 +1679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1643,7 +1705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1669,7 +1731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1695,7 +1757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1721,7 +1783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1747,7 +1809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1773,7 +1835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1799,7 +1861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1825,7 +1887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1833,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>3585.444444444444</v>
+        <v>3585.4444444444439</v>
       </c>
       <c r="D47">
-        <v>3585.444444444444</v>
+        <v>3585.4444444444439</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1851,7 +1913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1877,7 +1939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1903,7 +1965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1929,7 +1991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1955,7 +2017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1963,10 +2025,10 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>3198.421052631579</v>
+        <v>3198.4210526315792</v>
       </c>
       <c r="D52">
-        <v>3198.421052631579</v>
+        <v>3198.4210526315792</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1981,7 +2043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2007,7 +2069,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2033,7 +2095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2059,7 +2121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2085,7 +2147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2111,7 +2173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2137,7 +2199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2145,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>1978.888888888889</v>
+        <v>1978.8888888888889</v>
       </c>
       <c r="D59">
-        <v>1978.888888888889</v>
+        <v>1978.8888888888889</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -2163,7 +2225,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2189,7 +2251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2215,7 +2277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2241,7 +2303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2267,7 +2329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2293,7 +2355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2319,7 +2381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2345,7 +2407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2371,7 +2433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2397,7 +2459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2423,7 +2485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2449,7 +2511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2475,7 +2537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2483,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>13308.14285714286</v>
+        <v>13308.142857142861</v>
       </c>
       <c r="D72">
-        <v>13308.14285714286</v>
+        <v>13308.142857142861</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2501,7 +2563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2509,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>13493.46153846154</v>
+        <v>13493.461538461541</v>
       </c>
       <c r="D73">
-        <v>13493.46153846154</v>
+        <v>13493.461538461541</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2527,7 +2589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2553,7 +2615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2579,7 +2641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2605,7 +2667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2631,7 +2693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2657,7 +2719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -2683,7 +2745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2709,7 +2771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -2735,7 +2797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -2761,7 +2823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2787,7 +2849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2813,7 +2875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2839,7 +2901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2847,10 +2909,10 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>14195.29411764706</v>
+        <v>14195.294117647059</v>
       </c>
       <c r="D86">
-        <v>14195.29411764706</v>
+        <v>14195.294117647059</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -2865,7 +2927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2891,7 +2953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2899,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>14195.29411764706</v>
+        <v>14195.294117647059</v>
       </c>
       <c r="D88">
-        <v>14195.29411764706</v>
+        <v>14195.294117647059</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -2917,7 +2979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -2943,7 +3005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2969,7 +3031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -2995,7 +3057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -3021,7 +3083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -3047,7 +3109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3073,7 +3135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -3099,7 +3161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -3125,7 +3187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -3151,7 +3213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -3159,10 +3221,10 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>14111.57142857143</v>
+        <v>14111.571428571429</v>
       </c>
       <c r="D98">
-        <v>14111.57142857143</v>
+        <v>14111.571428571429</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -3177,7 +3239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
